--- a/Data/problem_data.xlsx
+++ b/Data/problem_data.xlsx
@@ -8,11 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="machines" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="products" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="work types" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="supplier order" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="customer order" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="products desired" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="work types" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="supplier order" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="customer order" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -501,7 +499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,128 +515,58 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>time_machine_needed</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RP0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>RAW</t>
-        </is>
+          <t>W0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RP1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>RAW</t>
-        </is>
+          <t>W1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RP2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>RAW</t>
-        </is>
+          <t>W2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RP3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>RAW</t>
-        </is>
+          <t>W3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RP4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>RAW</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>FP0</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>FINAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>FP1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>FINAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>FP2</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>FINAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>FP3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>FINAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>FP4</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>FINAL</t>
-        </is>
+          <t>W4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -652,7 +580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,22 +591,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>id_work_type</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>id_raw_product</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>id_final_product</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>time_machine_needed</t>
+          <t>quantity</t>
         </is>
       </c>
     </row>
@@ -688,18 +606,8 @@
           <t>W0</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>RP0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FP0</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>40</v>
+      <c r="B2" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -708,18 +616,8 @@
           <t>W1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>RP1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FP1</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>40</v>
+      <c r="B3" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="4">
@@ -728,18 +626,8 @@
           <t>W2</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>RP2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FP2</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
+      <c r="B4" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -748,18 +636,8 @@
           <t>W3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>RP3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FP3</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>30</v>
+      <c r="B5" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -768,18 +646,8 @@
           <t>W4</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>RP4</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FP4</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>40</v>
+      <c r="B6" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -793,7 +661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -804,344 +672,62 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>id_work_type</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>id_raw_product</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>quantity_to_add</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>day</t>
+          <t>quantity</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SO0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>RP0</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>W0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SO1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>RP1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>W1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>95</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SO2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>RP2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>W2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SO3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>RP3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>W3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>55</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SO4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>RP4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>70</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id_final_product</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>quantity_to_remove</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CO0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FP0</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CO1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>FP1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>95</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CO2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>FP2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CO3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>FP3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>55</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CO4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>FP4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>70</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id_general_product</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>start_quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>total_quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>P0</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>P4</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
         <v>70</v>
       </c>
     </row>

--- a/Data/problem_data.xlsx
+++ b/Data/problem_data.xlsx
@@ -9,8 +9,7 @@
   <sheets>
     <sheet name="machines" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="work types" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="supplier order" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="customer order" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="customer deadlines" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -653,85 +652,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id_work_type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W0</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W3</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W4</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>